--- a/MarsQA1_Feature/SpecFlowTests/Data/Mars.xlsx
+++ b/MarsQA1_Feature/SpecFlowTests/Data/Mars.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a3f5023c5658b3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a3f5023c5658b3/Desktop/MarsQA1_Feature/MarsQA1_Feature/SpecFlowTests/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFAD2D4-2DE3-42E6-B8F3-A7051DF0FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BFFAD2D4-2DE3-42E6-B8F3-A7051DF0FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{843FC429-2EBB-4FE6-93BF-02571293CBFD}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2655" windowWidth="17280" windowHeight="10320" xr2:uid="{D41345FD-82D3-4F64-9D20-A2D8B544F05A}"/>
+    <workbookView xWindow="4650" yWindow="2310" windowWidth="17280" windowHeight="10320" xr2:uid="{D41345FD-82D3-4F64-9D20-A2D8B544F05A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,10 +42,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>rukku.chiyyedu970@gmail.com</t>
+    <t>rukmini.chiyyedu@gmail.com</t>
   </si>
   <si>
-    <t>Testing121</t>
+    <t>Testing123</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
